--- a/pfSenseCORE.xlsx
+++ b/pfSenseCORE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrx/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrx/Documents/onedrive/OneDrive - NETWORKPRO Serviços em Tecnologia Ltda/pfsense/pfSenseCore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39624AA-9C22-F749-9FAA-59A99ABD04CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C1C545-CB85-CB4B-945D-CCC327D09ED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="33600" windowHeight="19240" xr2:uid="{4787539B-4E31-074A-A8FF-BEC2F1D9EBD6}"/>
   </bookViews>
@@ -266,9 +266,6 @@
     <t>AULA _8 - Gerenciamentos de Pacotes e Atualizações</t>
   </si>
   <si>
-    <t>AULA_10 - Interfaces VLAN</t>
-  </si>
-  <si>
     <t>https://docs.netgate.com/pfsense/en/latest/vpn/ipsec/routed-vti.html</t>
   </si>
   <si>
@@ -287,9 +284,6 @@
     <t>https://youtu.be/qSidYELfrHs</t>
   </si>
   <si>
-    <t>https://youtu.be/fY-XVczib_M</t>
-  </si>
-  <si>
     <t>AULA _5 - Ger. de Usuarios locais + ldap + radius</t>
   </si>
   <si>
@@ -390,6 +384,12 @@
   </si>
   <si>
     <t>https://youtu.be/eLeRFSu0s0Q</t>
+  </si>
+  <si>
+    <t>AULA_10 - VLAN + QinQ + Bridge</t>
+  </si>
+  <si>
+    <t>https://youtu.be/aN6uQqrxf4s</t>
   </si>
 </sst>
 </file>
@@ -530,13 +530,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -545,9 +545,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3028,8 +3028,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A8" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
@@ -3110,13 +3110,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="30">
@@ -3125,19 +3125,19 @@
       <c r="E6" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.35">
-      <c r="A7" s="28"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="30"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>1</v>
@@ -3180,13 +3180,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="18">
         <v>1.7002314814814814E-2</v>
@@ -3197,13 +3197,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="18">
         <v>1.3692129629629629E-2</v>
@@ -3214,11 +3214,11 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="29"/>
+        <v>85</v>
+      </c>
+      <c r="B14" s="33"/>
       <c r="C14" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D14" s="18">
         <v>1.6238425925925924E-2</v>
@@ -3235,7 +3235,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15" s="18">
         <v>9.2361111111111116E-3</v>
@@ -3245,14 +3245,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.35">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>74</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>91</v>
+      <c r="C16" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="D16" s="30">
         <v>5.7754629629629623E-3</v>
@@ -3262,15 +3262,15 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="28"/>
+        <v>88</v>
+      </c>
+      <c r="C17" s="27"/>
       <c r="D17" s="30"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>2</v>
@@ -3279,13 +3279,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D20" s="18">
         <v>1.0717592592592593E-2</v>
@@ -3296,24 +3296,24 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D21" s="18">
-        <v>7.0717592592592594E-3</v>
+        <v>1.6087962962962964E-2</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="28" t="s">
-        <v>92</v>
+      <c r="A22" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>25</v>
@@ -3324,7 +3324,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="28"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
@@ -3334,7 +3334,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="28"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="14" t="s">
         <v>27</v>
       </c>
@@ -3344,8 +3344,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
-        <v>93</v>
+      <c r="A25" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>28</v>
@@ -3356,7 +3356,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="28"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="14" t="s">
         <v>29</v>
       </c>
@@ -3368,7 +3368,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C27" s="21"/>
     </row>
-    <row r="28" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>3</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>31</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>30</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>32</v>
@@ -3409,8 +3409,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="28" t="s">
-        <v>97</v>
+      <c r="A33" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>33</v>
@@ -3421,7 +3421,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="28"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="14" t="s">
         <v>34</v>
       </c>
@@ -3431,7 +3431,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="28"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="14" t="s">
         <v>35</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>8</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>36</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>66</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>67</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>37</v>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>38</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="43" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>39</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>40</v>
@@ -3561,13 +3561,13 @@
     </row>
     <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" s="25">
         <v>8.8657407407407417E-3</v>
@@ -3578,11 +3578,11 @@
     </row>
     <row r="48" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="28"/>
+        <v>104</v>
+      </c>
+      <c r="B48" s="27"/>
       <c r="C48" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="25">
         <v>9.1203703703703707E-3</v>
@@ -3593,13 +3593,13 @@
     </row>
     <row r="49" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B49" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="23" t="s">
         <v>76</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>77</v>
       </c>
       <c r="D49" s="25">
         <v>1.7870370370370373E-2</v>
@@ -3610,13 +3610,13 @@
     </row>
     <row r="50" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" s="25">
         <v>1.9606481481481482E-2</v>
@@ -3627,11 +3627,11 @@
     </row>
     <row r="51" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" s="33"/>
+        <v>107</v>
+      </c>
+      <c r="B51" s="28"/>
       <c r="C51" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D51" s="18">
         <v>1.3645833333333331E-2</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>43</v>
@@ -3671,8 +3671,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="28" t="s">
-        <v>111</v>
+      <c r="A56" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>44</v>
@@ -3685,7 +3685,7 @@
       <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="28"/>
+      <c r="A57" s="27"/>
       <c r="B57" s="5" t="s">
         <v>45</v>
       </c>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="60" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>46</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="63" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>47</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="66" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>48</v>
@@ -3813,16 +3813,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A8:XFD8"/>
     <mergeCell ref="A18:XFD18"/>
     <mergeCell ref="A28:XFD28"/>
@@ -3833,6 +3823,16 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A22:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/pfSenseCORE.xlsx
+++ b/pfSenseCORE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrx/Documents/onedrive/OneDrive - NETWORKPRO Serviços em Tecnologia Ltda/pfsense/pfSenseCore/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrx/Documents/pfSenseCore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C1C545-CB85-CB4B-945D-CCC327D09ED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0882E2A-FCE6-3C4E-8E38-6B3BC52A195B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1760" windowWidth="33600" windowHeight="19240" xr2:uid="{4787539B-4E31-074A-A8FF-BEC2F1D9EBD6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
   <si>
     <t>MÓDULO_0/INSTAÇÃO</t>
   </si>
@@ -46,9 +46,6 @@
     <t>MÓDULO_1/SYSTEM</t>
   </si>
   <si>
-    <t>MÓDULO2_/INTERFACES</t>
-  </si>
-  <si>
     <t>MÓDULO_3/FIREWALL</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
   </si>
   <si>
     <t>https://docs.netgate.com/pfsense/en/latest/interfaces/lagg.html#id1</t>
-  </si>
-  <si>
-    <t>https://docs.netgate.com/tnsr/en/19.05/interfaces/types-bridge.html#interfaces-types-bridge</t>
   </si>
   <si>
     <t>https://docs.netgate.com/pfsense/en/latest/nat/index.html</t>
@@ -311,12 +305,6 @@
     <t>https://youtu.be/gl6OamIh7iQ</t>
   </si>
   <si>
-    <t>AULA_11 - Qinq, GRE, GIF **</t>
-  </si>
-  <si>
-    <t>AULA_12 - Bridges e LAGGs</t>
-  </si>
-  <si>
     <t>AULA_13 - Regras de Firewall</t>
   </si>
   <si>
@@ -390,6 +378,30 @@
   </si>
   <si>
     <t>https://youtu.be/aN6uQqrxf4s</t>
+  </si>
+  <si>
+    <t>https://youtu.be/298tzDiI1Yg</t>
+  </si>
+  <si>
+    <t>AULA_11 -  Interface Group + LAGG/LACP</t>
+  </si>
+  <si>
+    <t>AULA_12 - GRE + GIF</t>
+  </si>
+  <si>
+    <t>https://docs.netgate.com/pfsense/en/latest/bridges/index.html</t>
+  </si>
+  <si>
+    <t>https://docs.netgate.com/pfsense/en/latest/interfaces/groups.html</t>
+  </si>
+  <si>
+    <t>https://docs.netgate.com/pfsense/en/latest/interfaces/lagg.html</t>
+  </si>
+  <si>
+    <t>MÓDULO_2/INTERFACES</t>
+  </si>
+  <si>
+    <t>https://youtu.be/8_NYghwmZOQ</t>
   </si>
 </sst>
 </file>
@@ -530,13 +542,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -545,9 +557,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3026,10 +3038,10 @@
   <sheetPr>
     <outlinePr showOutlineSymbols="0"/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A8" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
@@ -3048,22 +3060,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -3079,65 +3091,65 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="18">
         <v>5.9490740740740745E-3</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="18">
         <v>1.6481481481481482E-2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
-        <v>63</v>
+      <c r="A6" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>62</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="D6" s="30">
         <v>1.4780092592592595E-2</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="29"/>
+        <v>48</v>
+      </c>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="27"/>
+        <v>59</v>
+      </c>
+      <c r="C7" s="28"/>
       <c r="D7" s="30"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="29"/>
-    </row>
-    <row r="8" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>1</v>
@@ -3146,693 +3158,725 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="18">
         <v>1.0104166666666668E-2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="18">
         <v>1.2060185185185186E-2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="18">
         <v>1.7002314814814814E-2</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>18</v>
+        <v>82</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="18">
         <v>1.3692129629629629E-2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="33"/>
+        <v>83</v>
+      </c>
+      <c r="B14" s="29"/>
       <c r="C14" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" s="18">
         <v>1.6238425925925924E-2</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="18">
         <v>9.2361111111111116E-3</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
-        <v>74</v>
+      <c r="A16" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>89</v>
+        <v>19</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="D16" s="30">
         <v>5.7754629629629623E-3</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="27"/>
+        <v>86</v>
+      </c>
+      <c r="C17" s="28"/>
       <c r="D17" s="30"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D20" s="18">
         <v>1.0717592592592593E-2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="30">
+        <v>1.6087962962962964E-2</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="28"/>
+      <c r="B22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="28"/>
+      <c r="B23" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="30">
+        <v>9.2361111111111116E-3</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="28"/>
+      <c r="B25" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="28"/>
+      <c r="B26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="18">
-        <v>1.6087962962962964E-2</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="14" t="s">
+      <c r="C27" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="30">
+        <v>1.1875000000000002E-2</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="28"/>
+      <c r="B28" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="E22" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
-      <c r="B23" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="E23" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="27"/>
-      <c r="B24" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="E24" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="E25" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="27"/>
-      <c r="B26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="E26" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C27" s="21"/>
-    </row>
-    <row r="28" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
-        <v>95</v>
+      <c r="A33" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="21"/>
+        <v>30</v>
+      </c>
       <c r="E33" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="27"/>
+      <c r="A34" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="B34" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" s="21"/>
       <c r="E34" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="27"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C35" s="21"/>
       <c r="E35" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="28"/>
+      <c r="B36" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="E36" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="18">
-        <v>1.9143518518518518E-2</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>50</v>
+        <v>92</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D40" s="18">
-        <v>2.119212962962963E-2</v>
+        <v>1.9143518518518518E-2</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>51</v>
+        <v>94</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="18">
+        <v>2.119212962962963E-2</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="25">
-        <v>8.8657407407407417E-3</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="23" t="s">
-        <v>78</v>
+        <v>99</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D48" s="25">
-        <v>9.1203703703703707E-3</v>
+        <v>8.8657407407407417E-3</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>75</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B49" s="28"/>
       <c r="C49" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D49" s="25">
+        <v>9.1203703703703707E-3</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="25">
         <v>1.7870370370370373E-2</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E50" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="25">
+        <v>1.9606481481481482E-2</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="18">
+        <v>1.3645833333333331E-2</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="14"/>
+    </row>
+    <row r="53" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="14"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="28"/>
+      <c r="B58" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="25"/>
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="25">
-        <v>1.9606481481481482E-2</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="18">
-        <v>1.3645833333333331E-2</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" s="14"/>
-    </row>
-    <row r="52" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="14"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="57" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="27"/>
-      <c r="B57" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="12"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="15" t="s">
+      <c r="E70" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>51</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A8:XFD8"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="A28:XFD28"/>
-    <mergeCell ref="A36:XFD36"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
+  <mergeCells count="30">
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A37:XFD37"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3872,26 +3916,26 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3">
         <v>10</v>

--- a/pfSenseCORE.xlsx
+++ b/pfSenseCORE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrx/Documents/pfSenseCore/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando\Downloads\pfSenseCore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0882E2A-FCE6-3C4E-8E38-6B3BC52A195B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7D2217-1B88-49C3-839A-8D5D191F99D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1760" windowWidth="33600" windowHeight="19240" xr2:uid="{4787539B-4E31-074A-A8FF-BEC2F1D9EBD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4787539B-4E31-074A-A8FF-BEC2F1D9EBD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano do curso - pfSense CORE" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
   <si>
     <t>MÓDULO_0/INSTAÇÃO</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>https://docs.netgate.com/pfsense/en/latest/nat/index.html</t>
-  </si>
-  <si>
-    <t>https://docs.netgate.com/pfsense/en/latest/firewall/fundamentals.html</t>
   </si>
   <si>
     <t>https://docs.netgate.com/pfsense/en/latest/trafficshaper/index.html</t>
@@ -402,6 +399,12 @@
   </si>
   <si>
     <t>https://youtu.be/8_NYghwmZOQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/zpog2dQq-6Y</t>
+  </si>
+  <si>
+    <t>https://docs.netgate.com/pfsense/en/latest/firewall/index.html</t>
   </si>
 </sst>
 </file>
@@ -542,12 +545,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -556,15 +553,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -614,7 +617,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -673,7 +676,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -729,7 +732,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -785,7 +788,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -841,7 +844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -897,7 +900,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -953,7 +956,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1009,7 +1012,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1065,7 +1068,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1121,7 +1124,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -1257,7 +1260,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(blank)</c:v>
+                  <c:v>(vazio)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1352,7 +1355,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="484095071"/>
@@ -1411,7 +1414,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="484020079"/>
@@ -1457,7 +1460,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1494,7 +1497,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2628,7 +2631,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{299B5082-BE55-454A-9E36-84AA6E74DEC4}" name="PivotTable3" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{299B5082-BE55-454A-9E36-84AA6E74DEC4}" name="PivotTable3" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:E5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2739,7 +2742,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3040,25 +3043,25 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D28"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A20" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="28.8" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="107.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="148.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="107.296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="148.19921875" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="14"/>
+    <col min="4" max="4" width="16.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.69921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.69921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.19921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -3075,36 +3078,36 @@
         <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>57</v>
       </c>
       <c r="D4" s="18">
         <v>5.9490740740740745E-3</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
@@ -3112,470 +3115,476 @@
         <v>12</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="18">
         <v>1.6481481481481482E-2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
-        <v>61</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="30">
+      <c r="C6" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="28">
         <v>1.4780092592592595E-2</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.35">
-      <c r="A7" s="28"/>
+      <c r="E6" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="27"/>
       <c r="B7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="18">
         <v>1.0104166666666668E-2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>70</v>
-      </c>
       <c r="C11" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="18">
         <v>1.2060185185185186E-2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="18">
         <v>1.7002314814814814E-2</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="18">
         <v>1.3692129629629629E-2</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="D14" s="18">
         <v>1.6238425925925924E-2</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="18">
         <v>9.2361111111111116E-3</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.35">
-      <c r="A16" s="28" t="s">
-        <v>72</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="27" t="s">
+        <v>71</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="30">
+      <c r="C16" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="28">
         <v>5.7754629629629623E-3</v>
       </c>
-      <c r="E16" s="31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="28"/>
+      <c r="E16" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="27"/>
       <c r="B17" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-    </row>
-    <row r="18" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="18">
         <v>1.0717592592592593E-2</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="28" t="s">
-        <v>111</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="30">
+      <c r="C21" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="28">
         <v>1.6087962962962964E-2</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
+      <c r="E21" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="27"/>
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="28"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="27"/>
       <c r="B23" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="28">
+        <v>9.2361111111111116E-3</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="27"/>
+      <c r="B25" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="30">
-        <v>9.2361111111111116E-3</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="28"/>
-      <c r="B25" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="28"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="27"/>
       <c r="B26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="28" t="s">
-        <v>115</v>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="30">
+      <c r="C27" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="28">
         <v>1.1875000000000002E-2</v>
       </c>
-      <c r="E27" s="31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="28"/>
+      <c r="E27" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="27"/>
       <c r="B28" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-    </row>
-    <row r="29" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="32"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="16"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="18">
+        <v>2.0497685185185185E-2</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
-        <v>89</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B34" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="C34" s="21"/>
       <c r="E34" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="28"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="27"/>
       <c r="B35" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="21"/>
       <c r="E35" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="28"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="27"/>
       <c r="B36" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="21"/>
       <c r="E36" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
-        <v>93</v>
-      </c>
       <c r="B40" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" s="18">
         <v>1.9143518518518518E-2</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="18">
         <v>2.119212962962963E-2</v>
       </c>
       <c r="E41" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="17" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B43" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
+      <c r="E43" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B44" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="13"/>
       <c r="E44" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3583,7 +3592,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
@@ -3593,89 +3602,89 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>39</v>
+        <v>98</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D48" s="25">
         <v>8.8657407407407417E-3</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="28"/>
+        <v>99</v>
+      </c>
+      <c r="B49" s="27"/>
       <c r="C49" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="25">
         <v>9.1203703703703707E-3</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="23" t="s">
         <v>73</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>74</v>
       </c>
       <c r="D50" s="25">
         <v>1.7870370370370373E-2</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>40</v>
+        <v>101</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D51" s="25">
         <v>1.9606481481481482E-2</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="33"/>
+        <v>102</v>
+      </c>
+      <c r="B52" s="30"/>
       <c r="C52" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" s="18">
         <v>1.3645833333333331E-2</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="14"/>
@@ -3683,7 +3692,7 @@
       <c r="E53" s="12"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="15" t="s">
         <v>4</v>
       </c>
@@ -3693,43 +3702,43 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="13"/>
       <c r="E57" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F57" s="14"/>
     </row>
-    <row r="58" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="28"/>
+    <row r="58" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="27"/>
       <c r="B58" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3737,7 +3746,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="15" t="s">
         <v>5</v>
       </c>
@@ -3747,19 +3756,19 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3767,7 +3776,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="15" t="s">
         <v>6</v>
       </c>
@@ -3777,17 +3786,17 @@
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="12"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -3795,7 +3804,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="15" t="s">
         <v>14</v>
       </c>
@@ -3805,21 +3814,21 @@
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
       <c r="E67" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -3827,9 +3836,9 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3837,21 +3846,22 @@
       <c r="E69" s="10"/>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A24:A26"/>
@@ -3868,12 +3878,11 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B51:B52"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -3889,7 +3898,7 @@
     <hyperlink ref="B16" r:id="rId7" xr:uid="{321E0273-3FF1-AB4D-A937-F7E9668E4A5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -3901,41 +3910,41 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="51.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="32.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3">
         <v>10</v>
